--- a/server/excel/url/daysSr(收入统计)_url.xlsx
+++ b/server/excel/url/daysSr(收入统计)_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>命令码</t>
   </si>
@@ -170,10 +170,22 @@
 }</t>
   </si>
   <si>
-    <t>新增收入-新增</t>
-  </si>
-  <si>
-    <t>/daysSr/newsrAdd</t>
+    <t>新增收入-新增数量</t>
+  </si>
+  <si>
+    <t>/daysSr/newsrAddCount</t>
+  </si>
+  <si>
+    <t>新增收入-新增价格</t>
+  </si>
+  <si>
+    <t>/daysSr/newsrAddPrice</t>
+  </si>
+  <si>
+    <t>cbhsDaysQtSrOid:int,price:double,unitPrice:double</t>
+  </si>
+  <si>
+    <t>数量收入ID,总金额,单价</t>
   </si>
 </sst>
 </file>
@@ -182,9 +194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -213,68 +225,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,9 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +336,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -328,36 +361,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,31 +384,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,151 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +575,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +622,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,30 +667,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -630,186 +675,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1424,6 +1436,38 @@
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
     </row>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="3">
+        <v>60205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait"/>

--- a/server/excel/url/daysSr(收入统计)_url.xlsx
+++ b/server/excel/url/daysSr(收入统计)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -224,15 +224,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,15 +283,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -306,70 +351,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,24 +384,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,157 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,9 +580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,21 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +639,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,145 +683,145 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,18 +1124,18 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.775" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
-    <col min="8" max="8" width="60.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="19.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="60.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="29.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">

--- a/server/excel/url/daysSr(收入统计)_url.xlsx
+++ b/server/excel/url/daysSr(收入统计)_url.xlsx
@@ -76,10 +76,10 @@
     <t>主键,部门ID,工程项目ID,工程量ID,开始日期,结束日期,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysGclSr[],total:long</t>
-  </si>
-  <si>
-    <t>工程收入集合,总条数</t>
+    <t>result:CbhsDaysGclSr[],total:long,hj:CbhsDaysGclSr</t>
+  </si>
+  <si>
+    <t>工程收入集合,总条数,合计</t>
   </si>
   <si>
     <t>工程收入-修改</t>
@@ -138,10 +138,10 @@
     <t>主键,部门ID,工程项目ID,开始日期,结束日期,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysQtSr[],total:long</t>
-  </si>
-  <si>
-    <t>新增收入集合,总条数</t>
+    <t>result:CbhsDaysQtSr[],total:long,hj:CbhsDaysQtSr</t>
+  </si>
+  <si>
+    <t>新增收入集合,总条数,合计</t>
   </si>
   <si>
     <t>新增收入-修改</t>
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -224,16 +224,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +268,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -278,13 +286,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,23 +315,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,15 +345,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,10 +683,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,19 +695,19 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,112 +716,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1133,7 +1133,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
     <col min="8" max="8" width="60.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="29.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="59.2222222222222" customWidth="1"/>
     <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
     <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
   </cols>
